--- a/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado06\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7698"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="297">
   <si>
     <t>Asignatura</t>
   </si>
@@ -907,13 +907,16 @@
     <t xml:space="preserve">Interactivo para que el estudiante aborde el proceso de escritura a partir del desarrollo de un plan textual </t>
   </si>
   <si>
-    <t>Recurso M102A-01</t>
-  </si>
-  <si>
     <t>La idea es presentar un plan textual estructurado para que el estudiante desarrolle fases en su propio escrito. Lo ideal sería que fuera con un tipo de texto relacionado con los géneros literarios (se debe plantear una actividad de escritura en la que sea claramente identificable la intención comunicativa).</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto: el proceso de escritura con un plan textual </t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1275,23 +1278,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1303,54 +1326,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1358,13 +1341,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,12 +1393,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,124 +1676,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="K20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="7"/>
-    <col min="10" max="10" width="92.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="60" style="10" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.46484375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.9296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.1328125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="7.53125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="7.53125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="21.59765625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.59765625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="10" style="17" customWidth="1"/>
+    <col min="19" max="19" width="26.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" style="17" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="49" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="52"/>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="56"/>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="54"/>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-    </row>
-    <row r="3" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
@@ -1791,53 +1809,53 @@
       <c r="D3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="26">
         <v>6</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -1850,53 +1868,53 @@
       <c r="D4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="33" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="26">
         <v>6</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>68</v>
       </c>
@@ -1909,53 +1927,53 @@
       <c r="D5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="11">
         <v>3</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="26">
         <v>6</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
@@ -1968,53 +1986,53 @@
       <c r="D6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="11">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="26">
         <v>6</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
@@ -2027,53 +2045,53 @@
       <c r="D7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="26">
         <v>6</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
@@ -2086,54 +2104,54 @@
       <c r="D8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="26">
         <v>6</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -2142,57 +2160,57 @@
       <c r="C9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="12">
         <v>7</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="26">
         <v>6</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2201,57 +2219,57 @@
       <c r="C10" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="12">
         <v>8</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="46" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -2260,61 +2278,61 @@
       <c r="C11" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="12">
         <v>9</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="26">
         <v>6</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -2323,61 +2341,61 @@
       <c r="C12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="12">
         <v>10</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="26">
         <v>6</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -2386,61 +2404,61 @@
       <c r="C13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="12">
         <v>11</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="26">
         <v>6</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -2449,57 +2467,57 @@
       <c r="C14" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="12">
         <v>12</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="46" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="49" t="s">
+      <c r="Q14" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2508,59 +2526,59 @@
       <c r="C15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="12">
         <v>13</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="25"/>
+      <c r="N15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="26">
         <v>6</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2569,59 +2587,59 @@
       <c r="C16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="12">
         <v>14</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="25"/>
+      <c r="N16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="46" t="s">
+      <c r="O16" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="26">
         <v>6</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -2630,59 +2648,59 @@
       <c r="C17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="12">
         <v>15</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="25"/>
+      <c r="N17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="46" t="s">
+      <c r="O17" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="26">
         <v>6</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="T17" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2691,59 +2709,59 @@
       <c r="C18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="12">
         <v>16</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47" t="s">
+      <c r="M18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="26">
         <v>6</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -2752,57 +2770,57 @@
       <c r="C19" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="12">
         <v>17</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="46" t="s">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="39">
         <v>6</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -2811,59 +2829,59 @@
       <c r="C20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="36" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="12">
         <v>18</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="25"/>
+      <c r="N20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="46" t="s">
+      <c r="O20" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="P20" s="45" t="s">
+      <c r="P20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="26">
         <v>6</v>
       </c>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -2872,59 +2890,59 @@
       <c r="C21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="12">
         <v>19</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47" t="s">
+      <c r="M21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="P21" s="45" t="s">
+      <c r="P21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="26">
         <v>6</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -2933,59 +2951,59 @@
       <c r="C22" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="12">
         <v>20</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="46" t="s">
+      <c r="O22" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="26">
         <v>6</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -2994,59 +3012,59 @@
       <c r="C23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="36" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="12">
         <v>21</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="47" t="s">
+      <c r="M23" s="25"/>
+      <c r="N23" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="47"/>
-      <c r="O23" s="46" t="s">
+      <c r="O23" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="P23" s="45" t="s">
+      <c r="P23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="26">
         <v>6</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="U23" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="U23" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -3055,59 +3073,59 @@
       <c r="C24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="12">
         <v>22</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="47"/>
-      <c r="O24" s="46" t="s">
+      <c r="O24" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="P24" s="45" t="s">
+      <c r="P24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="26">
         <v>6</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -3116,57 +3134,57 @@
       <c r="C25" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="36" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="12">
         <v>23</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47" t="s">
+      <c r="M25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="46" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="P25" s="45" t="s">
+      <c r="P25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="26">
         <v>6</v>
       </c>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -3175,57 +3193,57 @@
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="12">
         <v>24</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="46" t="s">
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="P26" s="45" t="s">
+      <c r="P26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="39">
         <v>6</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3234,57 +3252,57 @@
       <c r="C27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="12">
         <v>25</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="46" t="s">
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="P27" s="45" t="s">
+      <c r="P27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="39">
         <v>6</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -3293,59 +3311,59 @@
       <c r="C28" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="12">
         <v>26</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="25"/>
+      <c r="N28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="46" t="s">
+      <c r="O28" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="26">
         <v>6</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="R28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T28" s="14" t="s">
+      <c r="T28" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="U28" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -3354,59 +3372,59 @@
       <c r="C29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="12">
         <v>27</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="43" t="s">
+      <c r="K29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="44" t="s">
+      <c r="L29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="25"/>
+      <c r="N29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="47"/>
-      <c r="O29" s="46" t="s">
+      <c r="O29" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="P29" s="45" t="s">
+      <c r="P29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="26">
         <v>6</v>
       </c>
-      <c r="R29" s="14" t="s">
+      <c r="R29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T29" s="14" t="s">
+      <c r="T29" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="U29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="U29" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -3415,59 +3433,59 @@
       <c r="C30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="12">
         <v>28</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="K30" s="43" t="s">
+      <c r="K30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="25"/>
+      <c r="N30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="47"/>
-      <c r="O30" s="46" t="s">
+      <c r="O30" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="26">
         <v>6</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="U30" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -3476,59 +3494,59 @@
       <c r="C31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="12">
         <v>29</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="25"/>
+      <c r="N31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="46" t="s">
+      <c r="O31" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="P31" s="45" t="s">
+      <c r="P31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="26">
         <v>6</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="U31" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="U31" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -3537,57 +3555,57 @@
       <c r="C32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="38" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="12">
         <v>30</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="44" t="s">
+      <c r="L32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47" t="s">
+      <c r="M32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="N32" s="25"/>
+      <c r="O32" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="45" t="s">
+      <c r="P32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="26">
         <v>6</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T32" s="14" t="s">
+      <c r="T32" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -3596,59 +3614,59 @@
       <c r="C33" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="36" t="s">
+      <c r="F33" s="29"/>
+      <c r="G33" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="12">
         <v>31</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="K33" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="44" t="s">
+      <c r="L33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="25"/>
+      <c r="N33" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="P33" s="45" t="s">
+      <c r="P33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="26">
         <v>6</v>
       </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="U33" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3657,59 +3675,59 @@
       <c r="C34" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="36" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="12">
         <v>32</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="44" t="s">
+      <c r="L34" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="25"/>
+      <c r="N34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="46" t="s">
+      <c r="O34" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="P34" s="45" t="s">
+      <c r="P34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="26">
         <v>6</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -3718,59 +3736,59 @@
       <c r="C35" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="36" t="s">
+      <c r="F35" s="29"/>
+      <c r="G35" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="12">
         <v>33</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="L35" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="25"/>
+      <c r="N35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="46" t="s">
+      <c r="O35" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="45" t="s">
+      <c r="P35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="26">
         <v>6</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T35" s="14" t="s">
+      <c r="T35" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="U35" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -3779,59 +3797,59 @@
       <c r="C36" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="29"/>
+      <c r="G36" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="12">
         <v>34</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="25"/>
+      <c r="N36" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="46" t="s">
+      <c r="O36" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="26">
         <v>6</v>
       </c>
-      <c r="R36" s="14" t="s">
+      <c r="R36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -3840,59 +3858,59 @@
       <c r="C37" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="36" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="12">
         <v>35</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="44" t="s">
+      <c r="L37" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="46" t="s">
+      <c r="O37" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="P37" s="45" t="s">
+      <c r="P37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="26">
         <v>6</v>
       </c>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T37" s="14" t="s">
+      <c r="T37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="U37" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -3901,57 +3919,57 @@
       <c r="C38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="36" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="12">
         <v>36</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="44" t="s">
+      <c r="L38" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="25"/>
+      <c r="N38" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="46" t="s">
+      <c r="O38" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="P38" s="45" t="s">
+      <c r="P38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="26">
         <v>6</v>
       </c>
-      <c r="R38" s="14" t="s">
+      <c r="R38" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S38" s="14" t="s">
+      <c r="S38" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T38" s="14" t="s">
+      <c r="T38" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -3960,57 +3978,57 @@
       <c r="C39" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="36" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="12">
         <v>37</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="44" t="s">
+      <c r="L39" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="25"/>
+      <c r="N39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="46" t="s">
+      <c r="O39" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="P39" s="45" t="s">
+      <c r="P39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="26">
         <v>6</v>
       </c>
-      <c r="R39" s="14" t="s">
+      <c r="R39" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S39" s="14" t="s">
+      <c r="S39" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T39" s="14" t="s">
+      <c r="T39" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -4019,57 +4037,57 @@
       <c r="C40" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="36" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="12">
         <v>38</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="44" t="s">
+      <c r="L40" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="47" t="s">
+      <c r="M40" s="25"/>
+      <c r="N40" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N40" s="47"/>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="P40" s="45" t="s">
+      <c r="P40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="26">
         <v>6</v>
       </c>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S40" s="14" t="s">
+      <c r="S40" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T40" s="14" t="s">
+      <c r="T40" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -4078,55 +4096,57 @@
       <c r="C41" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="36" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" s="12">
+        <v>39</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>6</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H41" s="37">
-        <v>39</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="K41" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="P41" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>6</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -4135,41 +4155,41 @@
       <c r="C42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="36" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="12">
         <v>40</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="44" t="s">
+      <c r="L42" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="37"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -4178,1533 +4198,1533 @@
       <c r="C43" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="36" t="s">
+      <c r="E43" s="40"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="12">
         <v>41</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="44" t="s">
+      <c r="L43" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="25"/>
+      <c r="N43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="1">
+      <c r="O43" s="34"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="39">
         <v>6</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="R43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37">
+      <c r="E44" s="40"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="12">
         <v>42</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="K44" s="43" t="s">
+      <c r="K44" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="44" t="s">
+      <c r="L44" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="25"/>
+      <c r="N44" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="46" t="s">
+      <c r="O44" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="P44" s="45" t="s">
+      <c r="P44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="39">
         <v>6</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="45"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="45"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="45"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="45"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="45"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="2"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="2"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="47"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
-      <c r="U96" s="2"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="45"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="2"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="46"/>
-      <c r="P98" s="45"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="13"/>
-      <c r="U98" s="2"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="47"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="45"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="45"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="2"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="47"/>
-      <c r="N101" s="47"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="2"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="45"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="2"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="47"/>
-      <c r="N103" s="47"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="45"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="2"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="47"/>
-      <c r="N104" s="47"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="2"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="47"/>
-      <c r="N105" s="47"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="45"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="2"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="47"/>
-      <c r="N106" s="47"/>
-      <c r="O106" s="46"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
-      <c r="U106" s="2"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45" s="30"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="37"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" s="30"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="37"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="30"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="37"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="30"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="37"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" s="30"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="37"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" s="30"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="37"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A51" s="30"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="37"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A52" s="30"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="37"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A53" s="30"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="37"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54" s="30"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="37"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A55" s="30"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="37"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A56" s="30"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="37"/>
+    </row>
+    <row r="57" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="30"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="37"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A58" s="30"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="37"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="37"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A60" s="30"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="37"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A61" s="30"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="37"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="37"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A63" s="30"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="37"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A64" s="30"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="37"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" s="30"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="37"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" s="30"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="37"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" s="30"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="37"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" s="30"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="37"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" s="30"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="37"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70" s="30"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="37"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71" s="30"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="37"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" s="30"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="37"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73" s="30"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="37"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74" s="30"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="37"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" s="30"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="37"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" s="30"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="37"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" s="30"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="37"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" s="30"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="37"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" s="30"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="37"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" s="30"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="37"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81" s="30"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="37"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82" s="30"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="37"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A83" s="30"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="37"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A84" s="30"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="37"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A85" s="30"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="37"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A86" s="30"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="37"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A87" s="30"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="37"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A88" s="30"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="37"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A89" s="30"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="37"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A90" s="30"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="37"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A91" s="30"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="37"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A92" s="30"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="37"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A93" s="30"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="37"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A94" s="30"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="37"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A95" s="30"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="37"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A96" s="30"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="37"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A97" s="30"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="37"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A98" s="30"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="37"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A99" s="30"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="37"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A100" s="30"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="37"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A101" s="30"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="37"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A102" s="30"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="37"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A103" s="30"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="37"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A104" s="30"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="37"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A105" s="30"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="37"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A106" s="30"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5744,7 +5764,7 @@
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N16 N18:N106</xm:sqref>
+          <xm:sqref>M18:M106 M3:M16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5768,7 +5788,7 @@
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M106</xm:sqref>
+          <xm:sqref>N3:N106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5784,634 +5804,634 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="5"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="15" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
   </sheetData>
   <sheetProtection password="C9E9" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado06\guion02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7698"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -384,9 +384,6 @@
     <t>En este recurso se busca que los estudiantes se acerquen a los textos narrativos y a sus principales características</t>
   </si>
   <si>
-    <t>La idea es poner varios fragmentos de textos narrativos para que los estudiantes identifiquen en ellos, entre otros: temáticas, estructura (inicio, nudo, final), personajes, tiempo, espacios, ideas principales, ideas secundarias, etc.</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>El estudiante podrá clasificar distintos textos según pertenezcan al sentido figurado o al sentido propio</t>
   </si>
   <si>
-    <t xml:space="preserve">Se deben escoger frases o textos que sirvan claramente de ejemplos sobre el uso figurado y el uso propio o estricto del lenguaje para que el estudiante los clasifique dentro de los contenedores respectivos.  </t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
@@ -417,9 +411,6 @@
     <t>En esta actividad el estudiante debe ser capaz de identificar en un texto dado las expresiones que tienen algún sentido figurado</t>
   </si>
   <si>
-    <t>Se busca presentar un texto al estudiante en el que haya ejemplos de usos figurados del lenguaje y ejemplos de sentido propio. La actividad podría consistir en que el estudiante identifique solo aquellos que considere de sentido figurado. Se podría pensar en usar un texto de tipo narrativo.</t>
-  </si>
-  <si>
     <t>Recurso M13B-01</t>
   </si>
   <si>
@@ -444,9 +435,6 @@
     <t>El estudiante podrá escuchar y clasificar los textos que escucha en algunos géneros informativos como el reportaje, la entrevista o la noticia</t>
   </si>
   <si>
-    <t xml:space="preserve">La idea es incluir ejemplos de audios de una noticia, de una entrevista y de un reportaje a fin de que el estudiante logre escucharlos y clasificarlos. </t>
-  </si>
-  <si>
     <t>Recurso M3B-01</t>
   </si>
   <si>
@@ -462,15 +450,9 @@
     <t>Lo ideal sería poner varios ejemplos de expresiones orales y hacerle preguntas a los estudiantes en las que identifiquen los usos que se hace de la lengua de acuerdo a lo escuchado. Por ejemplo, puede haber un audio en el que se utilice la función apelativa del lenguaje y se le pregunte al estudiante por ello.</t>
   </si>
   <si>
-    <t>Cömo podemos clasificar los textos literarios</t>
-  </si>
-  <si>
     <t>SÍ</t>
   </si>
   <si>
-    <t xml:space="preserve">Hay que hacer una selección de textos literarios pertenecientes a los distintos géneros: narrativo, lírico y dramático. Se le pueden plantear preguntas a los estudiantes para hacerles evidentes las diferencias entre los textos presentados y el porqué de su clasificación. </t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -528,9 +510,6 @@
     <t>Actividad para que el estudiante identifique características del género narrativo</t>
   </si>
   <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC280). La idea es plantear un ejercicio de creación narrativa.</t>
-  </si>
-  <si>
     <t>Reforcemos nuestro aprendizaje sobre el género dramático</t>
   </si>
   <si>
@@ -564,9 +543,6 @@
     <t>Sí</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC40). Hay que revisar que el contenido sea preciso y con un lenguaje adecuado. </t>
-  </si>
-  <si>
     <t>Recurso expositivo que acerca al estudiante a comprender los elementos literarios que trabajan con el sentido figurado</t>
   </si>
   <si>
@@ -579,10 +555,6 @@
     <t>Actividad para aprender a diferenciar oraciones escritas en sentido propio o en sentido figurado</t>
   </si>
   <si>
-    <t xml:space="preserve">Hay que recordar la adaptación hecha por el autor (LE_06_07_REC60). Él sugiere "Cambiar la frase costar diez euros por costar diez mil pesos" y dejar el resto de texto del recurso igual.
-</t>
-  </si>
-  <si>
     <t>El poema</t>
   </si>
   <si>
@@ -595,9 +567,6 @@
     <t>Actividad que motiva al estudiante a identificar el sentido correcto de las expresiones figurativas</t>
   </si>
   <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC30). Hay que tener en cuenta que cambia el título y la descripción (se sigue la de la escaleta).</t>
-  </si>
-  <si>
     <t>Recurso M1C-01</t>
   </si>
   <si>
@@ -637,9 +606,6 @@
     <t>Explora algunos géneros informativos y comunicativos</t>
   </si>
   <si>
-    <t>Recurso nuevo. En este recurso se deben presentar algunas características generales de las noticias, los reportajes y las entrevistas. Cada uno puede estar representado en alguna imagen. Se puede aprovechar la información que no se tenga en cuenta para el recurso 37 de la primera escaleta que tiene que ver con guión.</t>
-  </si>
-  <si>
     <t>Recurso F6-02</t>
   </si>
   <si>
@@ -652,27 +618,18 @@
     <t>Interactivo para analizar el contenido y la estructura básica de una noticia; además permite diferenciar entre noticia escrita y noticia gráfica</t>
   </si>
   <si>
-    <t>Hay que utilizar el recurso introduciendo los cambios que sugirió la autora al adaptar el recurso (ver la tabla correspondiente LE_06_11_REC20 en el archivo LE_06_11).</t>
-  </si>
-  <si>
     <t>Los géneros informativos: la noticia escrita y la noticia gráfica</t>
   </si>
   <si>
     <t>Actividad para practicar la identificación de las partes de la noticia</t>
   </si>
   <si>
-    <t>El recurso queda igual salvo por el título</t>
-  </si>
-  <si>
     <t>Identifica las partes de una noticia</t>
   </si>
   <si>
     <t>Actividad para acercar a los estudiantes al formato de la entrevista de manera práctica</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurso nuevo. Hay que plantear una actividad en la que los estudiantes se organicen para presentar un pequeño noticiero. Para ello, primero deben redactar las noticias y luego escoger la mejor manera para poderlas comunicar, con organización. Ya que este recurso permite adjuntar archivos, lo ideal sería que le presentáramos al estudiante una pequeña plantilla que puede utilizar a la hora de escribir noticias. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC50). </t>
   </si>
   <si>
@@ -700,9 +657,6 @@
     <t>Recurso para organizar las características necesarias en la redacción de un reportaje</t>
   </si>
   <si>
-    <t>Recurso nuevo. La idea es identificar algunas características esenciales para la redacción de un reportaje (por ejemplo, la estructura, la intención comunicativa, el uso del lenguaje) y plantear un ejercicio de contenedores, en el que el estudiante deba organizar y clasificar dichas características.</t>
-  </si>
-  <si>
     <t>Recurso M10A-02</t>
   </si>
   <si>
@@ -712,9 +666,6 @@
     <t>Actividad para que los estudiantes aborden el reconocimiento de textos informativos</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC70). </t>
-  </si>
-  <si>
     <t>Recurso M4A-01</t>
   </si>
   <si>
@@ -826,9 +777,6 @@
     <t>Actividad para escuchar diversos textos, reconocer sus características y realizar su clasificación</t>
   </si>
   <si>
-    <t>Recurso nuevo. La idea es realizar algunos audios de distintos textos pertenecientes a los géneros literarios para que le estudiante al escucharlos pueda clasificarlos.</t>
-  </si>
-  <si>
     <t>Recurso M3B-02</t>
   </si>
   <si>
@@ -844,9 +792,6 @@
     <t>Recurso M12A-01</t>
   </si>
   <si>
-    <t>Es un recurso completamente nuevo. Se debe buscar una buena selección de textos de los diferentes géneros literarios. La idea es que el estudiante pueda identificar en ellos algunas características que permitan clasificarlos en un determinado género literario.</t>
-  </si>
-  <si>
     <t>Recurso nuevo. En este recurso se deben plantear algunas características de los noticieros y brindar el espacio para que el estudiante escriba en qué consisten.</t>
   </si>
   <si>
@@ -856,12 +801,6 @@
     <t xml:space="preserve">recurso para que el estudiante brinde ejemplos o explique las características del sentido figurado y del sentido propio </t>
   </si>
   <si>
-    <t>La idea es plantear algunas preguntas para que el estudiante brinde ejemplos sobre el sentido figurado y el sentido propio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este recurso es nuevo pero podemos aprovechar la información del recurso elaborado por el autor anteriormente (LE_06_07_REC80). </t>
-  </si>
-  <si>
     <t>Recurso M101A-07</t>
   </si>
   <si>
@@ -907,9 +846,6 @@
     <t xml:space="preserve">Interactivo para que el estudiante aborde el proceso de escritura a partir del desarrollo de un plan textual </t>
   </si>
   <si>
-    <t>La idea es presentar un plan textual estructurado para que el estudiante desarrolle fases en su propio escrito. Lo ideal sería que fuera con un tipo de texto relacionado con los géneros literarios (se debe plantear una actividad de escritura en la que sea claramente identificable la intención comunicativa).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proyecto: el proceso de escritura con un plan textual </t>
   </si>
   <si>
@@ -917,6 +853,69 @@
   </si>
   <si>
     <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cömo podemos clasificar los textos literarios </t>
+  </si>
+  <si>
+    <t>Es un recurso completamente nuevo. Se debe buscar una buena selección de textos de los diferentes géneros literarios. La idea es que el estudiante pueda identificar en ellos algunas características que permitan clasificarlos en un determinado género literario. DBA1</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC40). Hay que revisar que el contenido sea preciso y con un lenguaje adecuado. DBA1</t>
+  </si>
+  <si>
+    <t>La idea es presentar un plan textual estructurado para que el estudiante desarrolle fases en su propio escrito. Lo ideal sería que fuera con un tipo de texto relacionado con los géneros literarios (se debe plantear una actividad de escritura en la que sea claramente identificable la intención comunicativa). DBA2</t>
+  </si>
+  <si>
+    <t>El recurso queda igual salvo por el título. DBA1 - DBA6</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. La idea es identificar algunas características esenciales para la redacción de un reportaje (por ejemplo, la estructura, la intención comunicativa, el uso del lenguaje) y plantear un ejercicio de contenedores, en el que el estudiante deba organizar y clasificar dichas características. DBA6</t>
+  </si>
+  <si>
+    <t>Se busca presentar un texto al estudiante en el que haya ejemplos de usos figurados del lenguaje y ejemplos de sentido propio. La actividad podría consistir en que el estudiante identifique solo aquellos que considere de sentido figurado. Se podría pensar en usar un texto de tipo narrativo. DBA 8</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC30). Hay que tener en cuenta que cambia el título y la descripción (se sigue la de la escaleta). DBA8</t>
+  </si>
+  <si>
+    <t>Hay que recordar la adaptación hecha por el autor (LE_06_07_REC60). Él sugiere "Cambiar la frase costar diez euros por costar diez mil pesos" y dejar el resto de texto del recurso igual. DBA8</t>
+  </si>
+  <si>
+    <t>La idea es plantear algunas preguntas para que el estudiante brinde ejemplos sobre el sentido figurado y el sentido propio. DBA8</t>
+  </si>
+  <si>
+    <t>Hay que hacer una selección de textos literarios pertenecientes a los distintos géneros: narrativo, lírico y dramático. Se le pueden plantear preguntas a los estudiantes para hacerles evidentes las diferencias entre los textos presentados y el porqué de su clasificación. DBA1 - DBA9</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC280). La idea es plantear un ejercicio de creación narrativa. DBA9</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. La idea es realizar algunos audios de distintos textos pertenecientes a los géneros literarios para que le estudiante al escucharlos pueda clasificarlos. DBA9</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En este recurso se deben presentar algunas características generales de las noticias, los reportajes y las entrevistas. Cada uno puede estar representado en alguna imagen. Se puede aprovechar la información que no se tenga en cuenta para el recurso 37 de la primera escaleta que tiene que ver con guión. DBA10</t>
+  </si>
+  <si>
+    <t>Hay que utilizar el recurso introduciendo los cambios que sugirió la autora al adaptar el recurso (ver la tabla correspondiente LE_06_11_REC20 en el archivo LE_06_11). DBA10</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC70). DBA10</t>
+  </si>
+  <si>
+    <t>Este recurso es nuevo pero podemos aprovechar la información del recurso elaborado por el autor anteriormente (LE_06_07_REC80). DBA1 - DBA10</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Hay que plantear una actividad en la que los estudiantes se organicen para presentar un pequeño noticiero. Para ello, primero deben redactar las noticias y luego escoger la mejor manera para poderlas comunicar, con organización. Ya que este recurso permite adjuntar archivos, lo ideal sería que le presentáramos al estudiante una pequeña plantilla que puede utilizar a la hora de escribir noticias. DBA2 - DBA4 - DBA11</t>
+  </si>
+  <si>
+    <t>Se deben escoger frases o textos que sirvan claramente de ejemplos sobre el uso figurado y el uso propio o estricto del lenguaje para que el estudiante los clasifique dentro de los contenedores respectivos. DBA8</t>
+  </si>
+  <si>
+    <t>La idea es poner varios fragmentos de textos narrativos para que los estudiantes identifiquen en ellos, entre otros: temáticas, estructura (inicio, nudo, final), personajes, tiempo, espacios, ideas principales, ideas secundarias, etc. DBA6</t>
+  </si>
+  <si>
+    <t>La idea es incluir ejemplos de audios de una noticia, de una entrevista y de un reportaje a fin de que el estudiante logre escucharlos y clasificarlos. DBA10</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,6 +1375,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,127 +1678,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.46484375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.9296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.1328125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="7.53125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="7.53125" style="48" customWidth="1"/>
-    <col min="15" max="15" width="21.59765625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="48" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.59765625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="17" customWidth="1"/>
     <col min="18" max="18" width="10" style="17" customWidth="1"/>
-    <col min="19" max="19" width="26.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="13.73046875" style="17" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="17"/>
+    <col min="19" max="19" width="26.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="17" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="17" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="54"/>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="16" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
@@ -1812,7 +1814,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1834,7 +1836,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -1843,19 +1845,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="U3" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -1871,7 +1873,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
@@ -1880,7 +1882,7 @@
         <v>117</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>69</v>
@@ -1893,7 +1895,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -1902,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>68</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1939,7 +1941,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>69</v>
@@ -1952,7 +1954,7 @@
         <v>59</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -1961,19 +1963,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T5" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -1998,7 +2000,7 @@
         <v>117</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>69</v>
@@ -2011,7 +2013,7 @@
         <v>82</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -2020,19 +2022,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
@@ -2048,7 +2050,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -2057,7 +2059,7 @@
         <v>117</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>69</v>
@@ -2070,7 +2072,7 @@
         <v>79</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -2079,19 +2081,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T7" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
@@ -2107,7 +2109,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
@@ -2116,7 +2118,7 @@
         <v>117</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>69</v>
@@ -2129,7 +2131,7 @@
         <v>83</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -2138,19 +2140,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>68</v>
       </c>
@@ -2166,16 +2168,16 @@
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="22" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="H9" s="12">
         <v>7</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>69</v>
@@ -2188,7 +2190,7 @@
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="34" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>19</v>
@@ -2197,19 +2199,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>68</v>
       </c>
@@ -2227,16 +2229,16 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="22" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H10" s="12">
         <v>8</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>70</v>
@@ -2247,28 +2249,28 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>68</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H11" s="12">
         <v>9</v>
@@ -2297,7 +2299,7 @@
         <v>117</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>69</v>
@@ -2310,7 +2312,7 @@
         <v>62</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>19</v>
@@ -2319,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T11" s="8" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>68</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H12" s="12">
         <v>10</v>
@@ -2360,7 +2362,7 @@
         <v>117</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>69</v>
@@ -2373,7 +2375,7 @@
         <v>62</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>19</v>
@@ -2382,19 +2384,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T12" s="8" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>68</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H13" s="12">
         <v>11</v>
@@ -2423,7 +2425,7 @@
         <v>117</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>69</v>
@@ -2436,7 +2438,7 @@
         <v>62</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>19</v>
@@ -2445,19 +2447,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T13" s="8" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>68</v>
       </c>
@@ -2475,7 +2477,7 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="35" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H14" s="12">
         <v>12</v>
@@ -2484,7 +2486,7 @@
         <v>117</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>70</v>
@@ -2495,28 +2497,28 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="34" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U14" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2536,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="35" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H15" s="12">
         <v>13</v>
@@ -2543,7 +2545,7 @@
         <v>117</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>69</v>
@@ -2556,7 +2558,7 @@
         <v>62</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>20</v>
@@ -2565,19 +2567,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T15" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="U15" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>68</v>
       </c>
@@ -2595,7 +2597,7 @@
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="35" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H16" s="12">
         <v>14</v>
@@ -2604,7 +2606,7 @@
         <v>117</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>69</v>
@@ -2617,7 +2619,7 @@
         <v>73</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>19</v>
@@ -2626,19 +2628,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T16" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="U16" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>68</v>
       </c>
@@ -2656,7 +2658,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="35" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H17" s="12">
         <v>15</v>
@@ -2665,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K17" s="33" t="s">
         <v>69</v>
@@ -2678,7 +2680,7 @@
         <v>74</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>19</v>
@@ -2687,19 +2689,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T17" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>68</v>
       </c>
@@ -2717,16 +2719,16 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="35" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H18" s="12">
         <v>16</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>69</v>
@@ -2739,7 +2741,7 @@
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="34" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>19</v>
@@ -2748,19 +2750,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>68</v>
       </c>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="35" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H19" s="12">
         <v>17</v>
@@ -2787,7 +2789,7 @@
         <v>117</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>70</v>
@@ -2797,8 +2799,8 @@
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="34" t="s">
-        <v>184</v>
+      <c r="O19" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>19</v>
@@ -2807,19 +2809,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="U19" s="37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>68</v>
       </c>
@@ -2837,7 +2839,7 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="35" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H20" s="12">
         <v>18</v>
@@ -2846,7 +2848,7 @@
         <v>117</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>69</v>
@@ -2859,7 +2861,7 @@
         <v>62</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>19</v>
@@ -2868,19 +2870,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T20" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="U20" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>68</v>
       </c>
@@ -2898,16 +2900,16 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="35" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H21" s="12">
         <v>19</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>69</v>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="34" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>19</v>
@@ -2929,19 +2931,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>68</v>
       </c>
@@ -2959,7 +2961,7 @@
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="35" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H22" s="12">
         <v>20</v>
@@ -2968,7 +2970,7 @@
         <v>117</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>69</v>
@@ -2981,7 +2983,7 @@
         <v>64</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>19</v>
@@ -2990,19 +2992,19 @@
         <v>6</v>
       </c>
       <c r="R22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T22" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="U22" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -3020,7 +3022,7 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="35" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H23" s="12">
         <v>21</v>
@@ -3029,7 +3031,7 @@
         <v>117</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>69</v>
@@ -3042,7 +3044,7 @@
         <v>62</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>19</v>
@@ -3051,19 +3053,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T23" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>68</v>
       </c>
@@ -3081,7 +3083,7 @@
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="35" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="H24" s="12">
         <v>22</v>
@@ -3090,7 +3092,7 @@
         <v>117</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>69</v>
@@ -3103,7 +3105,7 @@
         <v>74</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P24" s="13" t="s">
         <v>20</v>
@@ -3112,19 +3114,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T24" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>68</v>
       </c>
@@ -3140,16 +3142,16 @@
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="35" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H25" s="12">
         <v>23</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K25" s="33" t="s">
         <v>69</v>
@@ -3162,7 +3164,7 @@
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="34" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>19</v>
@@ -3171,19 +3173,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>68</v>
       </c>
@@ -3201,16 +3203,16 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="35" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H26" s="12">
         <v>24</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>70</v>
@@ -3221,7 +3223,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
       <c r="O26" s="34" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>19</v>
@@ -3230,19 +3232,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>68</v>
       </c>
@@ -3260,7 +3262,7 @@
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="35" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H27" s="12">
         <v>25</v>
@@ -3269,7 +3271,7 @@
         <v>117</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K27" s="33" t="s">
         <v>70</v>
@@ -3280,7 +3282,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="34" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>19</v>
@@ -3289,19 +3291,19 @@
         <v>6</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>68</v>
       </c>
@@ -3319,7 +3321,7 @@
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="35" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H28" s="12">
         <v>26</v>
@@ -3328,7 +3330,7 @@
         <v>117</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>69</v>
@@ -3341,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>19</v>
@@ -3350,19 +3352,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T28" s="8" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>68</v>
       </c>
@@ -3380,7 +3382,7 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="35" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H29" s="12">
         <v>27</v>
@@ -3389,7 +3391,7 @@
         <v>117</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K29" s="33" t="s">
         <v>69</v>
@@ -3402,7 +3404,7 @@
         <v>62</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>19</v>
@@ -3411,19 +3413,19 @@
         <v>6</v>
       </c>
       <c r="R29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T29" s="8" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="U29" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>68</v>
       </c>
@@ -3441,7 +3443,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="35" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H30" s="12">
         <v>28</v>
@@ -3450,7 +3452,7 @@
         <v>117</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K30" s="33" t="s">
         <v>69</v>
@@ -3463,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>20</v>
@@ -3472,19 +3474,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T30" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>68</v>
       </c>
@@ -3502,7 +3504,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="35" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H31" s="12">
         <v>29</v>
@@ -3511,7 +3513,7 @@
         <v>117</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K31" s="33" t="s">
         <v>69</v>
@@ -3524,7 +3526,7 @@
         <v>62</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>19</v>
@@ -3533,19 +3535,19 @@
         <v>6</v>
       </c>
       <c r="R31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T31" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>68</v>
       </c>
@@ -3556,21 +3558,21 @@
         <v>95</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="29"/>
       <c r="G32" s="32" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H32" s="12">
         <v>30</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K32" s="33" t="s">
         <v>69</v>
@@ -3583,7 +3585,7 @@
       </c>
       <c r="N32" s="25"/>
       <c r="O32" s="34" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>19</v>
@@ -3592,19 +3594,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="U32" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>68</v>
       </c>
@@ -3615,14 +3617,14 @@
         <v>95</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="35" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H33" s="12">
         <v>31</v>
@@ -3631,7 +3633,7 @@
         <v>117</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>69</v>
@@ -3644,7 +3646,7 @@
         <v>24</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>19</v>
@@ -3653,19 +3655,19 @@
         <v>6</v>
       </c>
       <c r="R33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S33" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T33" s="8" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>68</v>
       </c>
@@ -3676,14 +3678,14 @@
         <v>95</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>114</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="35" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H34" s="12">
         <v>32</v>
@@ -3692,7 +3694,7 @@
         <v>117</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K34" s="33" t="s">
         <v>69</v>
@@ -3705,7 +3707,7 @@
         <v>83</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>19</v>
@@ -3714,19 +3716,19 @@
         <v>6</v>
       </c>
       <c r="R34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T34" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="U34" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>68</v>
       </c>
@@ -3737,14 +3739,14 @@
         <v>95</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="35" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H35" s="12">
         <v>33</v>
@@ -3753,7 +3755,7 @@
         <v>117</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>69</v>
@@ -3766,7 +3768,7 @@
         <v>62</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>19</v>
@@ -3775,19 +3777,19 @@
         <v>6</v>
       </c>
       <c r="R35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S35" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T35" s="8" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="U35" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>68</v>
       </c>
@@ -3798,14 +3800,14 @@
         <v>95</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="35" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H36" s="12">
         <v>34</v>
@@ -3814,7 +3816,7 @@
         <v>117</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K36" s="33" t="s">
         <v>69</v>
@@ -3827,7 +3829,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="34" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>20</v>
@@ -3836,19 +3838,19 @@
         <v>6</v>
       </c>
       <c r="R36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T36" s="8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="U36" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>68</v>
       </c>
@@ -3859,14 +3861,14 @@
         <v>95</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="35" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="H37" s="12">
         <v>35</v>
@@ -3875,7 +3877,7 @@
         <v>117</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="K37" s="33" t="s">
         <v>69</v>
@@ -3888,7 +3890,7 @@
         <v>62</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>19</v>
@@ -3897,19 +3899,19 @@
         <v>6</v>
       </c>
       <c r="R37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S37" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T37" s="8" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="U37" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>68</v>
       </c>
@@ -3925,7 +3927,7 @@
       <c r="E38" s="40"/>
       <c r="F38" s="29"/>
       <c r="G38" s="35" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H38" s="12">
         <v>36</v>
@@ -3934,7 +3936,7 @@
         <v>117</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>69</v>
@@ -3947,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>19</v>
@@ -3956,19 +3958,19 @@
         <v>6</v>
       </c>
       <c r="R38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S38" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T38" s="8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="U38" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>68</v>
       </c>
@@ -3984,7 +3986,7 @@
       <c r="E39" s="40"/>
       <c r="F39" s="29"/>
       <c r="G39" s="35" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H39" s="12">
         <v>37</v>
@@ -3993,7 +3995,7 @@
         <v>117</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="K39" s="33" t="s">
         <v>69</v>
@@ -4006,7 +4008,7 @@
         <v>54</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>19</v>
@@ -4015,19 +4017,19 @@
         <v>6</v>
       </c>
       <c r="R39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S39" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S39" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T39" s="8" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="U39" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>68</v>
       </c>
@@ -4043,7 +4045,7 @@
       <c r="E40" s="40"/>
       <c r="F40" s="29"/>
       <c r="G40" s="35" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H40" s="12">
         <v>38</v>
@@ -4052,7 +4054,7 @@
         <v>117</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="K40" s="33" t="s">
         <v>69</v>
@@ -4065,7 +4067,7 @@
         <v>74</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>19</v>
@@ -4074,19 +4076,19 @@
         <v>6</v>
       </c>
       <c r="R40" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T40" s="8" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4104,7 @@
       <c r="E41" s="40"/>
       <c r="F41" s="29"/>
       <c r="G41" s="35" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="H41" s="12">
         <v>39</v>
@@ -4111,7 +4113,7 @@
         <v>117</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="K41" s="33" t="s">
         <v>69</v>
@@ -4124,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>19</v>
@@ -4133,19 +4135,19 @@
         <v>6</v>
       </c>
       <c r="R41" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T41" s="8" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="U41" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>68</v>
       </c>
@@ -4156,12 +4158,12 @@
         <v>95</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="29"/>
       <c r="G42" s="35" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H42" s="12">
         <v>40</v>
@@ -4170,7 +4172,7 @@
         <v>117</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K42" s="33" t="s">
         <v>69</v>
@@ -4188,7 +4190,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="37"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>68</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>95</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="29"/>
@@ -4213,7 +4215,7 @@
         <v>117</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="K43" s="33" t="s">
         <v>69</v>
@@ -4231,19 +4233,19 @@
         <v>6</v>
       </c>
       <c r="R43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S43" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="T43" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="U43" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>68</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>95</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="29"/>
@@ -4266,7 +4268,7 @@
         <v>117</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="K44" s="33" t="s">
         <v>69</v>
@@ -4279,7 +4281,7 @@
         <v>63</v>
       </c>
       <c r="O44" s="34" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>20</v>
@@ -4288,19 +4290,19 @@
         <v>6</v>
       </c>
       <c r="R44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S44" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="T44" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="U44" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4323,7 +4325,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="37"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -4346,7 +4348,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="37"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -4369,7 +4371,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="37"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -4392,7 +4394,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="37"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
@@ -4415,7 +4417,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -4438,7 +4440,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="37"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
@@ -4461,7 +4463,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="37"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="41"/>
       <c r="C52" s="42"/>
@@ -4484,7 +4486,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
@@ -4507,7 +4509,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="37"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
@@ -4530,7 +4532,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="37"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
@@ -4553,7 +4555,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="37"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="41"/>
       <c r="C56" s="42"/>
@@ -4576,7 +4578,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="37"/>
     </row>
-    <row r="57" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
@@ -4599,7 +4601,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="37"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="41"/>
       <c r="C58" s="42"/>
@@ -4622,7 +4624,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="37"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -4645,7 +4647,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="37"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
@@ -4668,7 +4670,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="37"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -4691,7 +4693,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="37"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
@@ -4714,7 +4716,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -4737,7 +4739,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="37"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
@@ -4760,7 +4762,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="37"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
@@ -4783,7 +4785,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="37"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
@@ -4806,7 +4808,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="37"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
@@ -4829,7 +4831,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -4852,7 +4854,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="37"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
@@ -4875,7 +4877,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="37"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="41"/>
       <c r="C70" s="42"/>
@@ -4898,7 +4900,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="37"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="41"/>
       <c r="C71" s="42"/>
@@ -4921,7 +4923,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -4944,7 +4946,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
@@ -4967,7 +4969,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="37"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="41"/>
       <c r="C74" s="42"/>
@@ -4990,7 +4992,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="37"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="41"/>
       <c r="C75" s="42"/>
@@ -5013,7 +5015,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="41"/>
       <c r="C76" s="42"/>
@@ -5036,7 +5038,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="37"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="41"/>
       <c r="C77" s="42"/>
@@ -5059,7 +5061,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="41"/>
       <c r="C78" s="42"/>
@@ -5082,7 +5084,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="37"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="41"/>
       <c r="C79" s="42"/>
@@ -5105,7 +5107,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="37"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="41"/>
       <c r="C80" s="42"/>
@@ -5128,7 +5130,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="37"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="41"/>
       <c r="C81" s="42"/>
@@ -5151,7 +5153,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="37"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="41"/>
       <c r="C82" s="42"/>
@@ -5174,7 +5176,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="41"/>
       <c r="C83" s="42"/>
@@ -5197,7 +5199,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="37"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="41"/>
       <c r="C84" s="42"/>
@@ -5220,7 +5222,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="41"/>
       <c r="C85" s="42"/>
@@ -5243,7 +5245,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="37"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="41"/>
       <c r="C86" s="42"/>
@@ -5266,7 +5268,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="37"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="41"/>
       <c r="C87" s="42"/>
@@ -5289,7 +5291,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="41"/>
       <c r="C88" s="42"/>
@@ -5312,7 +5314,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="37"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
       <c r="B89" s="41"/>
       <c r="C89" s="42"/>
@@ -5335,7 +5337,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="37"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="41"/>
       <c r="C90" s="42"/>
@@ -5358,7 +5360,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="37"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="41"/>
       <c r="C91" s="42"/>
@@ -5381,7 +5383,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="37"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
       <c r="B92" s="41"/>
       <c r="C92" s="42"/>
@@ -5404,7 +5406,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="37"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
       <c r="B93" s="41"/>
       <c r="C93" s="42"/>
@@ -5427,7 +5429,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="37"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="41"/>
       <c r="C94" s="42"/>
@@ -5450,7 +5452,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="37"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
       <c r="B95" s="41"/>
       <c r="C95" s="42"/>
@@ -5473,7 +5475,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="37"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
       <c r="B96" s="41"/>
       <c r="C96" s="42"/>
@@ -5496,7 +5498,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="37"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
       <c r="B97" s="41"/>
       <c r="C97" s="42"/>
@@ -5519,7 +5521,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="37"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
       <c r="B98" s="41"/>
       <c r="C98" s="42"/>
@@ -5542,7 +5544,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="37"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
       <c r="B99" s="41"/>
       <c r="C99" s="42"/>
@@ -5565,7 +5567,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="37"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="41"/>
       <c r="C100" s="42"/>
@@ -5588,7 +5590,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="37"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="41"/>
       <c r="C101" s="42"/>
@@ -5611,7 +5613,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="37"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="41"/>
       <c r="C102" s="42"/>
@@ -5634,7 +5636,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="37"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="41"/>
       <c r="C103" s="42"/>
@@ -5657,7 +5659,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="37"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="41"/>
       <c r="C104" s="42"/>
@@ -5680,7 +5682,7 @@
       <c r="T104" s="7"/>
       <c r="U104" s="37"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="41"/>
       <c r="C105" s="42"/>
@@ -5703,7 +5705,7 @@
       <c r="T105" s="7"/>
       <c r="U105" s="37"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="41"/>
       <c r="C106" s="42"/>
@@ -5804,16 +5806,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>34</v>
@@ -5857,7 +5859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
@@ -5878,7 +5880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -5895,7 +5897,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>37</v>
@@ -5912,7 +5914,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>38</v>
@@ -5927,7 +5929,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>39</v>
@@ -5940,7 +5942,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>40</v>
@@ -5953,7 +5955,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>41</v>
@@ -5966,7 +5968,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>42</v>
@@ -5979,7 +5981,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>43</v>
@@ -5994,7 +5996,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
@@ -6009,7 +6011,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>45</v>
@@ -6024,7 +6026,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>46</v>
@@ -6039,7 +6041,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
@@ -6052,7 +6054,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -6065,7 +6067,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -6078,7 +6080,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
@@ -6091,7 +6093,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -6104,7 +6106,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -6117,7 +6119,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -6130,7 +6132,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -6143,7 +6145,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -6156,7 +6158,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -6169,7 +6171,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -6180,7 +6182,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -6191,7 +6193,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -6202,7 +6204,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -6213,7 +6215,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
@@ -6224,7 +6226,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
@@ -6235,7 +6237,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
@@ -6246,7 +6248,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
@@ -6257,7 +6259,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
@@ -6268,7 +6270,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
@@ -6279,7 +6281,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -6290,7 +6292,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -6301,7 +6303,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="9" t="s">
@@ -6312,7 +6314,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -6323,7 +6325,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -6334,7 +6336,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -6343,7 +6345,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -6352,7 +6354,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6361,7 +6363,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -6370,7 +6372,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -6379,7 +6381,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -6388,7 +6390,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -6397,7 +6399,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -6406,7 +6408,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -6415,7 +6417,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -6424,7 +6426,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>

--- a/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion02/ESCALETA_LE_06_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\CRISTIAN\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="297">
   <si>
     <t>Asignatura</t>
   </si>
@@ -381,9 +381,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>En este recurso se busca que los estudiantes se acerquen a los textos narrativos y a sus principales características</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -399,51 +396,27 @@
     <t xml:space="preserve">Lectura: diferenciemos entre el sentido propio y el figurado </t>
   </si>
   <si>
-    <t>El estudiante podrá clasificar distintos textos según pertenezcan al sentido figurado o al sentido propio</t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
     <t>Lectura: identifiquemos expresiones con sentido figurado</t>
   </si>
   <si>
-    <t>En esta actividad el estudiante debe ser capaz de identificar en un texto dado las expresiones que tienen algún sentido figurado</t>
-  </si>
-  <si>
     <t>Recurso M13B-01</t>
   </si>
   <si>
-    <t>Lectura: las características de un noticiero</t>
-  </si>
-  <si>
-    <t>Con este recurso se pone en juego la capacidad del estudiante para identificar los principales elementos de los medios de información que observa, especialmente de los noticieros.</t>
-  </si>
-  <si>
     <t>Sería ideal si se obtiene el video de un noticiero y luego se le plantean preguntas relacionadas al estudiante. Primero se podrían abordar las características generales de los noticieros, luego se podría plantear una comparación entre los noticieros y otros medios informativos.</t>
   </si>
   <si>
-    <t>Recurso M5B-01</t>
-  </si>
-  <si>
     <t>Lectura: descubre elementos de las narraciones</t>
   </si>
   <si>
     <t>Lectura: reconoce y clasifica algunos géneros informativos</t>
   </si>
   <si>
-    <t>El estudiante podrá escuchar y clasificar los textos que escucha en algunos géneros informativos como el reportaje, la entrevista o la noticia</t>
-  </si>
-  <si>
     <t>Recurso M3B-01</t>
   </si>
   <si>
-    <t>Lectura: el uso de la comunicación oral</t>
-  </si>
-  <si>
-    <t>El estudiante tiene la oportunidad de identificar algunas funciones de la comunicación oral</t>
-  </si>
-  <si>
     <t>Recurso M5C-01</t>
   </si>
   <si>
@@ -465,15 +438,9 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>Se le presentan al estudiante algunos textos literarios y la clasificación que se les suele dar en virtud de sus principales características</t>
-  </si>
-  <si>
     <t>El análisis de un texto narrativo</t>
   </si>
   <si>
-    <t>El estudiante puede explorar diferentes características de las narracciones para aprender a analizarlas y realizar un buen proceso de comprensión de lectura</t>
-  </si>
-  <si>
     <t>2° ESO</t>
   </si>
   <si>
@@ -489,12 +456,6 @@
     <t>LC_08_08</t>
   </si>
   <si>
-    <t>Reforcemos nuestro aprendizaje sobre el género lírico</t>
-  </si>
-  <si>
-    <t>Actividad de creación con base en el género lírico</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -504,36 +465,15 @@
     <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC270). La idea es plantear un ejercicio de creación poética.</t>
   </si>
   <si>
-    <t>Reforcemos nuestro aprendizaje sobre el género narrativo</t>
-  </si>
-  <si>
-    <t>Actividad para que el estudiante identifique características del género narrativo</t>
-  </si>
-  <si>
-    <t>Reforcemos nuestro aprendizaje sobre el género dramático</t>
-  </si>
-  <si>
-    <t>Actividad de producción textual sobre el género dramático</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC290) pero sería mejor si se plantean preguntas adicionales sobre las características de los textos dramáticos. </t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Los géneros literarios: definición</t>
   </si>
   <si>
-    <t>Actividad que permite repasar y afianzar conceptos claves relacionados con los géneros literarios</t>
-  </si>
-  <si>
     <t>El recurso se puede dejar como está.</t>
   </si>
   <si>
-    <t>Identifica textos de los distintos géneros literarios</t>
-  </si>
-  <si>
-    <t>Con este recurso el estudiante puede escuchar y diferenciar ejemplos de textos de los diferentes géneros literarios</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ética y comunicación: la comunicación verbal </t>
   </si>
   <si>
@@ -543,18 +483,12 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>Recurso expositivo que acerca al estudiante a comprender los elementos literarios que trabajan con el sentido figurado</t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
     <t>Distingue sentido propio de sentido figurado</t>
   </si>
   <si>
-    <t>Actividad para aprender a diferenciar oraciones escritas en sentido propio o en sentido figurado</t>
-  </si>
-  <si>
     <t>El poema</t>
   </si>
   <si>
@@ -564,18 +498,9 @@
     <t>Expresiones con sentido figurado</t>
   </si>
   <si>
-    <t>Actividad que motiva al estudiante a identificar el sentido correcto de las expresiones figurativas</t>
-  </si>
-  <si>
     <t>Recurso M1C-01</t>
   </si>
   <si>
-    <t>Relaciona palabras con su significado propio</t>
-  </si>
-  <si>
-    <t>Este recurso permite que el estudiante perfeccione su vocabulario al relacionar palabras con su sentido estricto o propio</t>
-  </si>
-  <si>
     <t>Este recurso es completamente nuevo. La idea es hacer un listado de palabras y presentarle al estudiante su significado denotativo, para que él pueda relacionarlos.</t>
   </si>
   <si>
@@ -585,51 +510,21 @@
     <t>La organización y presentación de un noticiero</t>
   </si>
   <si>
-    <t>En este recurso los estudiantes pueden explorar la manera en que se organiza la presentación de la información en un noticiero</t>
-  </si>
-  <si>
-    <t>Redacta noticias y organiza un noticiero</t>
-  </si>
-  <si>
-    <t>Los estudiantes tienen la posibilidad de producir textos informativos y luego aprender a comunicarlos mediante la realización de un noticiero</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Recuerda características de los noticieros</t>
-  </si>
-  <si>
-    <t>En este recurso los estudiantes deben dar cuenta de lo aprendido en las secciones anteriores al identificar y ser capaces de definir algunas características esenciales de los noticieros</t>
-  </si>
-  <si>
     <t>Explora algunos géneros informativos y comunicativos</t>
   </si>
   <si>
     <t>Recurso F6-02</t>
   </si>
   <si>
-    <t>La noticia escrita y la noticia gráfica</t>
-  </si>
-  <si>
-    <t>Se busca que el estudiante explore las principales características de las noticias, los reportajes y las entrevistas.</t>
-  </si>
-  <si>
-    <t>Interactivo para analizar el contenido y la estructura básica de una noticia; además permite diferenciar entre noticia escrita y noticia gráfica</t>
-  </si>
-  <si>
     <t>Los géneros informativos: la noticia escrita y la noticia gráfica</t>
   </si>
   <si>
-    <t>Actividad para practicar la identificación de las partes de la noticia</t>
-  </si>
-  <si>
     <t>Identifica las partes de una noticia</t>
   </si>
   <si>
-    <t>Actividad para acercar a los estudiantes al formato de la entrevista de manera práctica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC50). </t>
   </si>
   <si>
@@ -645,277 +540,382 @@
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Identifica las partes de la noticia</t>
-  </si>
-  <si>
-    <t>La entrevista que se convirtió en libro</t>
-  </si>
-  <si>
     <t>Los elementos de un reportaje</t>
   </si>
   <si>
+    <t>Recurso M10A-02</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En este recurso se deben plantear algunas explicaicones sobre las características de los noticieros y pedirle al estudiante que las relacione. Se podría, por ejemplo, nombrar las secciones de los noticieros y hacer algunas explciaciones sobre ellas, para uqe los estudiantes hallen su relación.</t>
+  </si>
+  <si>
+    <t>Recurso M1C-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de actividades </t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>Acerquémonos a la comunicación oral y escrita</t>
+  </si>
+  <si>
+    <t>Las diferencias entre lenguaje, lengua y habla</t>
+  </si>
+  <si>
+    <t>Recurso M10A-03</t>
+  </si>
+  <si>
+    <t>Recurso M5C-02</t>
+  </si>
+  <si>
+    <t>La práctica de la comunicación escrita</t>
+  </si>
+  <si>
+    <t>Recurso M101A-06</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Lo ideal en este recurso sería dar información y ejemplos claros sobre la comunicación oral y escrita. Habría que pensar en ejemplos tanto con texto, como con imágenes.</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Lo ideal en este recurso sería dar rasgos o características de lo que son la lengua, el lenguaje y el habla, para que el estudiante los diferencia y clasifique.</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En el recurso se pueden plantear preguntas sobre las carácterísticas de la comunicación oral o también se puede postular una actividad en la que se pida un ejercicio oral.</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En este recurso hay que proponer una actividad de escritura para que el estudiante logre una determinada intención comunicativa u objetivo.</t>
+  </si>
+  <si>
+    <t>Mapa Conceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa conceptual del tema Los Géneros Literarios </t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>Las diferencias entre los géneros literarios</t>
+  </si>
+  <si>
+    <t>Recurso M3B-02</t>
+  </si>
+  <si>
+    <t>La organización de un noticiero</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. La idea es escribir algunas fases en las que se puede preparar un noticiero para que el estudiante las organice.</t>
+  </si>
+  <si>
+    <t>Recurso M12A-01</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En este recurso se deben plantear algunas características de los noticieros y brindar el espacio para que el estudiante escriba en qué consisten.</t>
+  </si>
+  <si>
+    <t>Recurso M101A-07</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En la medida de lo posible se deben buscar imágenes que ayuden a señalar cómo los noticieros tienen distintas secciones en razón del orden que se le quiere dar a la información, al igual que su prioridad.</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Debe incluirse 10 preguntas abiertas:3 sobre géneros literarios; 2 sobre tecnicismos, 3 sobre los medios de comunicación escritos, 2 sobre la intención comunicativa.Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Recurso M101A-08</t>
+  </si>
+  <si>
+    <t>Recurso M101A-09</t>
+  </si>
+  <si>
+    <t>Recurso M101A-10</t>
+  </si>
+  <si>
+    <t>Reconoce partes de un texto informativo</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Hay que crear un crucigrama en el que se incluyan algunas características de la comunicación oral, de la escrita y de los conceptos de lenguaje, lengua y habla.</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Lo ideal sería plantear una serie de preguntas sobre las formas de comunicación (oral y escrita) que el estudiante pueda responder de manera breve. Tal vez se podría preguntar con base en ejemplos concretos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC90). </t>
+  </si>
+  <si>
+    <t>Recurso M1C-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto: el proceso de escritura con un plan textual </t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>Es un recurso completamente nuevo. Se debe buscar una buena selección de textos de los diferentes géneros literarios. La idea es que el estudiante pueda identificar en ellos algunas características que permitan clasificarlos en un determinado género literario. DBA1</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC40). Hay que revisar que el contenido sea preciso y con un lenguaje adecuado. DBA1</t>
+  </si>
+  <si>
+    <t>La idea es presentar un plan textual estructurado para que el estudiante desarrolle fases en su propio escrito. Lo ideal sería que fuera con un tipo de texto relacionado con los géneros literarios (se debe plantear una actividad de escritura en la que sea claramente identificable la intención comunicativa). DBA2</t>
+  </si>
+  <si>
+    <t>El recurso queda igual salvo por el título. DBA1 - DBA6</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. La idea es identificar algunas características esenciales para la redacción de un reportaje (por ejemplo, la estructura, la intención comunicativa, el uso del lenguaje) y plantear un ejercicio de contenedores, en el que el estudiante deba organizar y clasificar dichas características. DBA6</t>
+  </si>
+  <si>
+    <t>Se busca presentar un texto al estudiante en el que haya ejemplos de usos figurados del lenguaje y ejemplos de sentido propio. La actividad podría consistir en que el estudiante identifique solo aquellos que considere de sentido figurado. Se podría pensar en usar un texto de tipo narrativo. DBA 8</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC30). Hay que tener en cuenta que cambia el título y la descripción (se sigue la de la escaleta). DBA8</t>
+  </si>
+  <si>
+    <t>Hay que recordar la adaptación hecha por el autor (LE_06_07_REC60). Él sugiere "Cambiar la frase costar diez euros por costar diez mil pesos" y dejar el resto de texto del recurso igual. DBA8</t>
+  </si>
+  <si>
+    <t>La idea es plantear algunas preguntas para que el estudiante brinde ejemplos sobre el sentido figurado y el sentido propio. DBA8</t>
+  </si>
+  <si>
+    <t>Hay que hacer una selección de textos literarios pertenecientes a los distintos géneros: narrativo, lírico y dramático. Se le pueden plantear preguntas a los estudiantes para hacerles evidentes las diferencias entre los textos presentados y el porqué de su clasificación. DBA1 - DBA9</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC280). La idea es plantear un ejercicio de creación narrativa. DBA9</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. La idea es realizar algunos audios de distintos textos pertenecientes a los géneros literarios para que le estudiante al escucharlos pueda clasificarlos. DBA9</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. En este recurso se deben presentar algunas características generales de las noticias, los reportajes y las entrevistas. Cada uno puede estar representado en alguna imagen. Se puede aprovechar la información que no se tenga en cuenta para el recurso 37 de la primera escaleta que tiene que ver con guión. DBA10</t>
+  </si>
+  <si>
+    <t>Hay que utilizar el recurso introduciendo los cambios que sugirió la autora al adaptar el recurso (ver la tabla correspondiente LE_06_11_REC20 en el archivo LE_06_11). DBA10</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC70). DBA10</t>
+  </si>
+  <si>
+    <t>Este recurso es nuevo pero podemos aprovechar la información del recurso elaborado por el autor anteriormente (LE_06_07_REC80). DBA1 - DBA10</t>
+  </si>
+  <si>
+    <t>Recurso nuevo. Hay que plantear una actividad en la que los estudiantes se organicen para presentar un pequeño noticiero. Para ello, primero deben redactar las noticias y luego escoger la mejor manera para poderlas comunicar, con organización. Ya que este recurso permite adjuntar archivos, lo ideal sería que le presentáramos al estudiante una pequeña plantilla que puede utilizar a la hora de escribir noticias. DBA2 - DBA4 - DBA11</t>
+  </si>
+  <si>
+    <t>Se deben escoger frases o textos que sirvan claramente de ejemplos sobre el uso figurado y el uso propio o estricto del lenguaje para que el estudiante los clasifique dentro de los contenedores respectivos. DBA8</t>
+  </si>
+  <si>
+    <t>La idea es poner varios fragmentos de textos narrativos para que los estudiantes identifiquen en ellos, entre otros: temáticas, estructura (inicio, nudo, final), personajes, tiempo, espacios, ideas principales, ideas secundarias, etc. DBA6</t>
+  </si>
+  <si>
+    <t>La idea es incluir ejemplos de audios de una noticia, de una entrevista y de un reportaje a fin de que el estudiante logre escucharlos y clasificarlos. DBA10</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Distingue sentido propio de sentido figurado</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Recuerda características de los noticieros</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Relaciona características de los noticieros</t>
+  </si>
+  <si>
+    <t>¿Cómo podemos clasificar los textos literarios?</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El género narrativo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El género lírico</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El género dramático</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Descubre a qué género informativo pertenece</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Clasifica textos informativos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La comunicación, el lenguaje, la lengua y el habla</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La comunicación</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer textos informativos</t>
+  </si>
+  <si>
+    <t>Actividad para caracterizar los conceptos de lenguaje, lengua y habla</t>
+  </si>
+  <si>
+    <t>Actividad para ejercitar la capacidad de producir textos escritos</t>
+  </si>
+  <si>
+    <t>Actividad sobre las características de los textos narrativos</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar el sentido figurado del sentido propio</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer expresiones con sentido figurado</t>
+  </si>
+  <si>
+    <t>Lectura: las características de una noticia</t>
+  </si>
+  <si>
+    <t>Actividad sobre los principales elementos de las noticias</t>
+  </si>
+  <si>
+    <t>Lectura: la comunicación oral</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar textos informativos</t>
+  </si>
+  <si>
+    <t>Actividad sobre algunos elementos de la comunicación oral</t>
+  </si>
+  <si>
+    <t>Interactivo sobre los elementos literarios con sentido figurado</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el significado de expresiones con sentido figurado</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar oraciones con sentido propio y con sentido figurado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad de clasificación de expresiones con sentido figurado y con sentido propio </t>
+  </si>
+  <si>
+    <t>Interactivo sobre la presentación de la información en un noticiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para determinar la temática de algunas noticias </t>
+  </si>
+  <si>
+    <t>Escucha e interpreta noticias</t>
+  </si>
+  <si>
+    <t>Actividad sobre rasgos esenciales de los noticieros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para repasar características de los noticieros </t>
+  </si>
+  <si>
+    <t>Interactivo para analizar el contenido y la estructura básica de una noticia</t>
+  </si>
+  <si>
+    <t>Actividad para identificar rasgos de las entrevistas</t>
+  </si>
+  <si>
+    <t>Los elementos de una entrevista</t>
+  </si>
+  <si>
+    <t>Interactivo para explorar las diferencias entre la comunicación oral y la escrita</t>
+  </si>
+  <si>
+    <t>Actividad sobre diferencias entre la comunicación escrita y la oral</t>
+  </si>
+  <si>
+    <t>Actividad de clasificación de diversos textos literarios</t>
+  </si>
+  <si>
+    <t>Actividad sobre los pasos para preparar y realizar un noticiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para escribir un texto a partir de un plan textual </t>
+  </si>
+  <si>
+    <t>Actividades para repasar los contenidos del tema Los Géneros Literarios</t>
+  </si>
+  <si>
+    <t>Recurso M12D-01</t>
+  </si>
+  <si>
+    <t>Recurso M1B-02</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los géneros literarios</t>
+  </si>
+  <si>
+    <t>Interactivo sobre las características y tipos de textos literarios</t>
+  </si>
+  <si>
+    <t>Interactivo que ofrece los elementos que facilitan el análisis de un texto narrativo</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar los conocimientos sobre las narraciones</t>
+  </si>
+  <si>
+    <t>Actividad de creación lírica</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar los conocimientos sobre las obras de teatro</t>
+  </si>
+  <si>
+    <t>Actividades sobre las características de los géneros literarios</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar los géneros literarios</t>
+  </si>
+  <si>
+    <t>Relaciona palabras con su significado propio o figurado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este recurso explora el significado de términos con sentido propio y figurado </t>
+  </si>
+  <si>
+    <t>Interactivo sobre las características de las noticias, de los reportajes y de las entrevistas</t>
+  </si>
+  <si>
+    <t>Los géneros informativos: La noticia escrita y la noticia gráfica</t>
+  </si>
+  <si>
+    <t>Actividad para comprender y reconocer la estructura de una noticia</t>
+  </si>
+  <si>
     <t>Recurso para organizar las características necesarias en la redacción de un reportaje</t>
   </si>
   <si>
-    <t>Recurso M10A-02</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: descubre a qué género informativo pertenece</t>
-  </si>
-  <si>
-    <t>Actividad para que los estudiantes aborden el reconocimiento de textos informativos</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: clasifica textos informativos</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar el aprendizaje respecto a la diferenciación de los textos informativos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Relaciona características de los noticieros</t>
-  </si>
-  <si>
-    <t>Actividad para que el estudiante halle relaciones entre las características de los noticieros</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En este recurso se deben plantear algunas explicaicones sobre las características de los noticieros y pedirle al estudiante que las relacione. Se podría, por ejemplo, nombrar las secciones de los noticieros y hacer algunas explciaciones sobre ellas, para uqe los estudiantes hallen su relación.</t>
-  </si>
-  <si>
-    <t>Recurso M1C-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco de actividades </t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
-    <t>Acerquémonos a la comunicación oral y escrita</t>
-  </si>
-  <si>
-    <t>Este recurso es una exploración inicial sobre las diferencias entre la comunicación oral y la escrita</t>
-  </si>
-  <si>
-    <t>Las diferencias entre lenguaje, lengua y habla</t>
-  </si>
-  <si>
-    <t>Esta actividad busca que el estudiante sea capaz de caracterizar los conceptos de lenguaje, lengua y habla</t>
-  </si>
-  <si>
-    <t>Recurso M10A-03</t>
-  </si>
-  <si>
-    <t>¿Qué caracteriza a la comunicación oral?</t>
-  </si>
-  <si>
-    <t>Este recurso valora el conocimiento del estudiante sobre los rasgos característicos de la comunicación oral</t>
-  </si>
-  <si>
-    <t>Recurso M5C-02</t>
-  </si>
-  <si>
-    <t>La práctica de la comunicación escrita</t>
-  </si>
-  <si>
-    <t>Este recurso propone una actividad para que el estudiante se ejercite en su capacidad de producir textos escritos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-06</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. Lo ideal en este recurso sería dar información y ejemplos claros sobre la comunicación oral y escrita. Habría que pensar en ejemplos tanto con texto, como con imágenes.</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. Lo ideal en este recurso sería dar rasgos o características de lo que son la lengua, el lenguaje y el habla, para que el estudiante los diferencia y clasifique.</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En el recurso se pueden plantear preguntas sobre las carácterísticas de la comunicación oral o también se puede postular una actividad en la que se pida un ejercicio oral.</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En este recurso hay que proponer una actividad de escritura para que el estudiante logre una determinada intención comunicativa u objetivo.</t>
-  </si>
-  <si>
-    <t>Mapa Conceptual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa conceptual del tema Los Géneros Literarios </t>
-  </si>
-  <si>
-    <t>Actividad para evaluar los conocimientos del estudiante sobre el tema los Géneros Literarios</t>
-  </si>
-  <si>
-    <t>Actividades para repasar los contenidos del tema Los Géneros Literarios.</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la comunicación, el lenguaje, la lengua y el habla</t>
-  </si>
-  <si>
-    <t>Este es un ejercicio para comprobar la comprensión de los conceptos de lenguaje, lengua y habla, así como de los principales rasgos de la comunicación oral y escrita</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la comunicación</t>
-  </si>
-  <si>
-    <t>En este recurso el estudiante tiene la posibilidad de responder preguntas sobre características esenciales de las formas de comunicación escrita y oral</t>
-  </si>
-  <si>
-    <t>Las diferencias entre los géneros literarios</t>
-  </si>
-  <si>
-    <t>Actividad para escuchar diversos textos, reconocer sus características y realizar su clasificación</t>
-  </si>
-  <si>
-    <t>Recurso M3B-02</t>
-  </si>
-  <si>
-    <t>La organización de un noticiero</t>
-  </si>
-  <si>
-    <t>Organización de secuencias para que el estudiante demuestre que comprende el orden en que se puede preparar y realizar un noticiero</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. La idea es escribir algunas fases en las que se puede preparar un noticiero para que el estudiante las organice.</t>
-  </si>
-  <si>
-    <t>Recurso M12A-01</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En este recurso se deben plantear algunas características de los noticieros y brindar el espacio para que el estudiante escriba en qué consisten.</t>
-  </si>
-  <si>
-    <t>Ejemplos sobre el sentido figurado y el sentido propio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recurso para que el estudiante brinde ejemplos o explique las características del sentido figurado y del sentido propio </t>
-  </si>
-  <si>
-    <t>Recurso M101A-07</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En la medida de lo posible se deben buscar imágenes que ayuden a señalar cómo los noticieros tienen distintas secciones en razón del orden que se le quiere dar a la información, al igual que su prioridad.</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Debe incluirse 10 preguntas abiertas:3 sobre géneros literarios; 2 sobre tecnicismos, 3 sobre los medios de comunicación escritos, 2 sobre la intención comunicativa.Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
-  </si>
-  <si>
-    <t>Recurso M101A-08</t>
-  </si>
-  <si>
-    <t>Recurso M101A-09</t>
-  </si>
-  <si>
-    <t>Recurso M101A-10</t>
-  </si>
-  <si>
-    <t>Reconoce partes de un texto informativo</t>
+    <t>Practica la comunicación oral</t>
+  </si>
+  <si>
+    <t>Actividad de ejercitación en la comunicación oral</t>
+  </si>
+  <si>
+    <t>Actividad para abordar los conceptos de lenguaje, lengua y habla</t>
   </si>
   <si>
     <t>Actividad para poner en práctica tus competencias en el análisis de un texto informativo</t>
   </si>
   <si>
-    <t>Recurso nuevo. Hay que crear un crucigrama en el que se incluyan algunas características de la comunicación oral, de la escrita y de los conceptos de lenguaje, lengua y habla.</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. Lo ideal sería plantear una serie de preguntas sobre las formas de comunicación (oral y escrita) que el estudiante pueda responder de manera breve. Tal vez se podría preguntar con base en ejemplos concretos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC90). </t>
-  </si>
-  <si>
-    <t>Recurso M1C-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo para que el estudiante aborde el proceso de escritura a partir del desarrollo de un plan textual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proyecto: el proceso de escritura con un plan textual </t>
-  </si>
-  <si>
-    <t>Recurso M102AB-02</t>
-  </si>
-  <si>
-    <t>RM_01_02_CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cömo podemos clasificar los textos literarios </t>
-  </si>
-  <si>
-    <t>Es un recurso completamente nuevo. Se debe buscar una buena selección de textos de los diferentes géneros literarios. La idea es que el estudiante pueda identificar en ellos algunas características que permitan clasificarlos en un determinado género literario. DBA1</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC40). Hay que revisar que el contenido sea preciso y con un lenguaje adecuado. DBA1</t>
-  </si>
-  <si>
-    <t>La idea es presentar un plan textual estructurado para que el estudiante desarrolle fases en su propio escrito. Lo ideal sería que fuera con un tipo de texto relacionado con los géneros literarios (se debe plantear una actividad de escritura en la que sea claramente identificable la intención comunicativa). DBA2</t>
-  </si>
-  <si>
-    <t>El recurso queda igual salvo por el título. DBA1 - DBA6</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. La idea es identificar algunas características esenciales para la redacción de un reportaje (por ejemplo, la estructura, la intención comunicativa, el uso del lenguaje) y plantear un ejercicio de contenedores, en el que el estudiante deba organizar y clasificar dichas características. DBA6</t>
-  </si>
-  <si>
-    <t>Se busca presentar un texto al estudiante en el que haya ejemplos de usos figurados del lenguaje y ejemplos de sentido propio. La actividad podría consistir en que el estudiante identifique solo aquellos que considere de sentido figurado. Se podría pensar en usar un texto de tipo narrativo. DBA 8</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC30). Hay que tener en cuenta que cambia el título y la descripción (se sigue la de la escaleta). DBA8</t>
-  </si>
-  <si>
-    <t>Hay que recordar la adaptación hecha por el autor (LE_06_07_REC60). Él sugiere "Cambiar la frase costar diez euros por costar diez mil pesos" y dejar el resto de texto del recurso igual. DBA8</t>
-  </si>
-  <si>
-    <t>La idea es plantear algunas preguntas para que el estudiante brinde ejemplos sobre el sentido figurado y el sentido propio. DBA8</t>
-  </si>
-  <si>
-    <t>Hay que hacer una selección de textos literarios pertenecientes a los distintos géneros: narrativo, lírico y dramático. Se le pueden plantear preguntas a los estudiantes para hacerles evidentes las diferencias entre los textos presentados y el porqué de su clasificación. DBA1 - DBA9</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_01_REC280). La idea es plantear un ejercicio de creación narrativa. DBA9</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. La idea es realizar algunos audios de distintos textos pertenecientes a los géneros literarios para que le estudiante al escucharlos pueda clasificarlos. DBA9</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. En este recurso se deben presentar algunas características generales de las noticias, los reportajes y las entrevistas. Cada uno puede estar representado en alguna imagen. Se puede aprovechar la información que no se tenga en cuenta para el recurso 37 de la primera escaleta que tiene que ver con guión. DBA10</t>
-  </si>
-  <si>
-    <t>Hay que utilizar el recurso introduciendo los cambios que sugirió la autora al adaptar el recurso (ver la tabla correspondiente LE_06_11_REC20 en el archivo LE_06_11). DBA10</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por el autor. Aprobado para digitalizar. Usar y aprovechar el recurso que se había planteado anteriormente (LE_06_07_REC70). DBA10</t>
-  </si>
-  <si>
-    <t>Este recurso es nuevo pero podemos aprovechar la información del recurso elaborado por el autor anteriormente (LE_06_07_REC80). DBA1 - DBA10</t>
-  </si>
-  <si>
-    <t>Recurso nuevo. Hay que plantear una actividad en la que los estudiantes se organicen para presentar un pequeño noticiero. Para ello, primero deben redactar las noticias y luego escoger la mejor manera para poderlas comunicar, con organización. Ya que este recurso permite adjuntar archivos, lo ideal sería que le presentáramos al estudiante una pequeña plantilla que puede utilizar a la hora de escribir noticias. DBA2 - DBA4 - DBA11</t>
-  </si>
-  <si>
-    <t>Se deben escoger frases o textos que sirvan claramente de ejemplos sobre el uso figurado y el uso propio o estricto del lenguaje para que el estudiante los clasifique dentro de los contenedores respectivos. DBA8</t>
-  </si>
-  <si>
-    <t>La idea es poner varios fragmentos de textos narrativos para que los estudiantes identifiquen en ellos, entre otros: temáticas, estructura (inicio, nudo, final), personajes, tiempo, espacios, ideas principales, ideas secundarias, etc. DBA6</t>
-  </si>
-  <si>
-    <t>La idea es incluir ejemplos de audios de una noticia, de una entrevista y de un reportaje a fin de que el estudiante logre escucharlos y clasificarlos. DBA10</t>
+    <t>Evalúa tus conocimientos sobre el tema Los géneros literarios</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Identifica textos literarios</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el sentido figurado y el sentido propio</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1004,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1377,6 +1383,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,10 +1702,10 @@
     <col min="4" max="4" width="27.85546875" style="17" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="139.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="48" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="48" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" style="17" customWidth="1"/>
@@ -1709,94 +1721,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="16" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1814,7 +1826,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1823,7 +1835,7 @@
         <v>117</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>69</v>
@@ -1836,7 +1848,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -1845,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="27" t="s">
         <v>121</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1873,7 +1885,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
@@ -1882,7 +1894,7 @@
         <v>117</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>69</v>
@@ -1895,7 +1907,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -1904,16 +1916,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1932,7 +1944,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1941,7 +1953,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>69</v>
@@ -1954,7 +1966,7 @@
         <v>59</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -1963,16 +1975,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T5" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1990,8 +2002,8 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
-        <v>129</v>
+      <c r="G6" s="50" t="s">
+        <v>251</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -2000,7 +2012,7 @@
         <v>117</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>69</v>
@@ -2009,11 +2021,11 @@
         <v>32</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
-        <v>82</v>
+      <c r="N6" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -2022,16 +2034,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>132</v>
+      <c r="T6" s="52" t="s">
+        <v>274</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2050,7 +2062,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -2059,7 +2071,7 @@
         <v>117</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>69</v>
@@ -2072,7 +2084,7 @@
         <v>79</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -2081,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T7" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2108,8 +2120,8 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="22" t="s">
-        <v>137</v>
+      <c r="G8" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
@@ -2118,7 +2130,7 @@
         <v>117</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>69</v>
@@ -2127,11 +2139,11 @@
         <v>32</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
-        <v>83</v>
+      <c r="N8" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -2140,16 +2152,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>139</v>
+      <c r="T8" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2168,16 +2180,16 @@
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="22" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="H9" s="12">
         <v>7</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>69</v>
@@ -2190,7 +2202,7 @@
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="34" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>19</v>
@@ -2199,16 +2211,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2229,16 +2241,16 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H10" s="12">
         <v>8</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>70</v>
@@ -2249,25 +2261,25 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="34" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2290,7 +2302,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="H11" s="12">
         <v>9</v>
@@ -2299,7 +2311,7 @@
         <v>117</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>69</v>
@@ -2312,7 +2324,7 @@
         <v>62</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>19</v>
@@ -2321,16 +2333,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T11" s="8" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2353,7 +2365,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="H12" s="12">
         <v>10</v>
@@ -2362,7 +2374,7 @@
         <v>117</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>69</v>
@@ -2375,7 +2387,7 @@
         <v>62</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>19</v>
@@ -2384,16 +2396,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T12" s="8" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2416,7 +2428,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="H13" s="12">
         <v>11</v>
@@ -2425,7 +2437,7 @@
         <v>117</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>69</v>
@@ -2438,7 +2450,7 @@
         <v>62</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>19</v>
@@ -2447,16 +2459,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T13" s="8" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2476,8 +2488,8 @@
         <v>91</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="35" t="s">
-        <v>164</v>
+      <c r="G14" s="51" t="s">
+        <v>276</v>
       </c>
       <c r="H14" s="12">
         <v>12</v>
@@ -2486,7 +2498,7 @@
         <v>117</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>70</v>
@@ -2497,25 +2509,25 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="34" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="U14" s="37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2535,8 +2547,8 @@
         <v>91</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="35" t="s">
-        <v>167</v>
+      <c r="G15" s="51" t="s">
+        <v>295</v>
       </c>
       <c r="H15" s="12">
         <v>13</v>
@@ -2545,7 +2557,7 @@
         <v>117</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>69</v>
@@ -2558,7 +2570,7 @@
         <v>62</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>20</v>
@@ -2567,16 +2579,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T15" s="8" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="U15" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2596,8 +2608,8 @@
         <v>103</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="35" t="s">
-        <v>181</v>
+      <c r="G16" s="51" t="s">
+        <v>284</v>
       </c>
       <c r="H16" s="12">
         <v>14</v>
@@ -2606,7 +2618,7 @@
         <v>117</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>69</v>
@@ -2619,7 +2631,7 @@
         <v>73</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>19</v>
@@ -2628,16 +2640,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>184</v>
+      <c r="T16" s="52" t="s">
+        <v>275</v>
       </c>
       <c r="U16" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2658,7 +2670,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="35" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H17" s="12">
         <v>15</v>
@@ -2667,7 +2679,7 @@
         <v>117</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="K17" s="33" t="s">
         <v>69</v>
@@ -2680,7 +2692,7 @@
         <v>74</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>19</v>
@@ -2689,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T17" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2719,16 +2731,16 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H18" s="12">
         <v>16</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>69</v>
@@ -2741,7 +2753,7 @@
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="34" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>19</v>
@@ -2750,16 +2762,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,8 +2791,8 @@
         <v>91</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="35" t="s">
-        <v>174</v>
+      <c r="G19" s="51" t="s">
+        <v>234</v>
       </c>
       <c r="H19" s="12">
         <v>17</v>
@@ -2789,7 +2801,7 @@
         <v>117</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>70</v>
@@ -2800,7 +2812,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="49" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>19</v>
@@ -2809,16 +2821,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="U19" s="37" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2838,8 +2850,8 @@
         <v>91</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="35" t="s">
-        <v>256</v>
+      <c r="G20" s="51" t="s">
+        <v>296</v>
       </c>
       <c r="H20" s="12">
         <v>18</v>
@@ -2848,7 +2860,7 @@
         <v>117</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>69</v>
@@ -2861,7 +2873,7 @@
         <v>62</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>19</v>
@@ -2870,16 +2882,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T20" s="8" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="U20" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2900,16 +2912,16 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="35" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="H21" s="12">
         <v>19</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>69</v>
@@ -2922,7 +2934,7 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="34" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>19</v>
@@ -2931,16 +2943,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2960,8 +2972,8 @@
         <v>108</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="35" t="s">
-        <v>187</v>
+      <c r="G22" s="51" t="s">
+        <v>262</v>
       </c>
       <c r="H22" s="12">
         <v>20</v>
@@ -2970,7 +2982,7 @@
         <v>117</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>69</v>
@@ -2979,11 +2991,11 @@
         <v>32</v>
       </c>
       <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
-        <v>64</v>
+      <c r="N22" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>19</v>
@@ -2992,16 +3004,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>189</v>
+      <c r="T22" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="U22" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3021,8 +3033,8 @@
         <v>91</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="35" t="s">
-        <v>190</v>
+      <c r="G23" s="51" t="s">
+        <v>235</v>
       </c>
       <c r="H23" s="12">
         <v>21</v>
@@ -3031,7 +3043,7 @@
         <v>117</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>69</v>
@@ -3044,7 +3056,7 @@
         <v>62</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>19</v>
@@ -3053,16 +3065,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T23" s="8" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3082,8 +3094,8 @@
         <v>91</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="35" t="s">
-        <v>217</v>
+      <c r="G24" s="51" t="s">
+        <v>236</v>
       </c>
       <c r="H24" s="12">
         <v>22</v>
@@ -3092,7 +3104,7 @@
         <v>117</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>69</v>
@@ -3105,7 +3117,7 @@
         <v>74</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="P24" s="13" t="s">
         <v>20</v>
@@ -3114,16 +3126,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T24" s="8" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3142,16 +3154,16 @@
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="35" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H25" s="12">
         <v>23</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="K25" s="33" t="s">
         <v>69</v>
@@ -3164,7 +3176,7 @@
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="34" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>19</v>
@@ -3173,16 +3185,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3202,17 +3214,17 @@
         <v>110</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="35" t="s">
-        <v>194</v>
+      <c r="G26" s="51" t="s">
+        <v>287</v>
       </c>
       <c r="H26" s="12">
         <v>24</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>70</v>
@@ -3223,7 +3235,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
       <c r="O26" s="34" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>19</v>
@@ -3232,16 +3244,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3261,8 +3273,8 @@
         <v>110</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="35" t="s">
-        <v>206</v>
+      <c r="G27" s="51" t="s">
+        <v>165</v>
       </c>
       <c r="H27" s="12">
         <v>25</v>
@@ -3271,7 +3283,7 @@
         <v>117</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="K27" s="33" t="s">
         <v>70</v>
@@ -3282,7 +3294,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="34" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>19</v>
@@ -3291,16 +3303,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3321,7 +3333,7 @@
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="35" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H28" s="12">
         <v>26</v>
@@ -3330,7 +3342,7 @@
         <v>117</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>69</v>
@@ -3343,7 +3355,7 @@
         <v>24</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>19</v>
@@ -3352,16 +3364,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T28" s="8" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3381,8 +3393,8 @@
         <v>111</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="35" t="s">
-        <v>207</v>
+      <c r="G29" s="51" t="s">
+        <v>267</v>
       </c>
       <c r="H29" s="12">
         <v>27</v>
@@ -3391,7 +3403,7 @@
         <v>117</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="K29" s="33" t="s">
         <v>69</v>
@@ -3404,7 +3416,7 @@
         <v>62</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>19</v>
@@ -3413,16 +3425,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T29" s="8" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="U29" s="27" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3443,7 +3455,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="35" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="H30" s="12">
         <v>28</v>
@@ -3452,7 +3464,7 @@
         <v>117</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="K30" s="33" t="s">
         <v>69</v>
@@ -3465,7 +3477,7 @@
         <v>23</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>20</v>
@@ -3474,16 +3486,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T30" s="8" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3504,7 +3516,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="35" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="H31" s="12">
         <v>29</v>
@@ -3513,7 +3525,7 @@
         <v>117</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="K31" s="33" t="s">
         <v>69</v>
@@ -3526,7 +3538,7 @@
         <v>62</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>19</v>
@@ -3535,16 +3547,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T31" s="8" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3558,21 +3570,21 @@
         <v>95</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="29"/>
       <c r="G32" s="32" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="H32" s="12">
         <v>30</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="K32" s="33" t="s">
         <v>69</v>
@@ -3585,7 +3597,7 @@
       </c>
       <c r="N32" s="25"/>
       <c r="O32" s="34" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>19</v>
@@ -3594,16 +3606,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="U32" s="27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3617,14 +3629,14 @@
         <v>95</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="35" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="H33" s="12">
         <v>31</v>
@@ -3633,7 +3645,7 @@
         <v>117</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>69</v>
@@ -3646,7 +3658,7 @@
         <v>24</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>19</v>
@@ -3655,16 +3667,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S33" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T33" s="8" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3678,14 +3690,14 @@
         <v>95</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>114</v>
       </c>
       <c r="F34" s="29"/>
-      <c r="G34" s="35" t="s">
-        <v>228</v>
+      <c r="G34" s="51" t="s">
+        <v>290</v>
       </c>
       <c r="H34" s="12">
         <v>32</v>
@@ -3694,7 +3706,7 @@
         <v>117</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="K34" s="33" t="s">
         <v>69</v>
@@ -3707,7 +3719,7 @@
         <v>83</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>19</v>
@@ -3716,16 +3728,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S34" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T34" s="8" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="U34" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3739,14 +3751,14 @@
         <v>95</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="35" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="H35" s="12">
         <v>33</v>
@@ -3755,7 +3767,7 @@
         <v>117</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>69</v>
@@ -3768,7 +3780,7 @@
         <v>62</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>19</v>
@@ -3777,16 +3789,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S35" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T35" s="8" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="U35" s="27" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3800,14 +3812,14 @@
         <v>95</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="12">
         <v>34</v>
@@ -3816,7 +3828,7 @@
         <v>117</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="K36" s="33" t="s">
         <v>69</v>
@@ -3829,7 +3841,7 @@
         <v>53</v>
       </c>
       <c r="O36" s="34" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>20</v>
@@ -3838,16 +3850,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T36" s="8" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="U36" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3861,14 +3873,14 @@
         <v>95</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H37" s="12">
         <v>35</v>
@@ -3877,7 +3889,7 @@
         <v>117</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K37" s="33" t="s">
         <v>69</v>
@@ -3890,7 +3902,7 @@
         <v>62</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>19</v>
@@ -3899,16 +3911,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T37" s="8" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="U37" s="27" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3927,7 +3939,7 @@
       <c r="E38" s="40"/>
       <c r="F38" s="29"/>
       <c r="G38" s="35" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="H38" s="12">
         <v>36</v>
@@ -3936,7 +3948,7 @@
         <v>117</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>69</v>
@@ -3949,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>19</v>
@@ -3958,16 +3970,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T38" s="8" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="U38" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3986,7 +3998,7 @@
       <c r="E39" s="40"/>
       <c r="F39" s="29"/>
       <c r="G39" s="35" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="H39" s="12">
         <v>37</v>
@@ -3995,7 +4007,7 @@
         <v>117</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K39" s="33" t="s">
         <v>69</v>
@@ -4008,7 +4020,7 @@
         <v>54</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>19</v>
@@ -4017,16 +4029,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S39" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S39" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T39" s="8" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="U39" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -4045,7 +4057,7 @@
       <c r="E40" s="40"/>
       <c r="F40" s="29"/>
       <c r="G40" s="35" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="H40" s="12">
         <v>38</v>
@@ -4054,7 +4066,7 @@
         <v>117</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K40" s="33" t="s">
         <v>69</v>
@@ -4067,7 +4079,7 @@
         <v>74</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>19</v>
@@ -4076,16 +4088,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="T40" s="8" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4104,7 +4116,7 @@
       <c r="E41" s="40"/>
       <c r="F41" s="29"/>
       <c r="G41" s="35" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="H41" s="12">
         <v>39</v>
@@ -4126,7 +4138,7 @@
         <v>64</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>19</v>
@@ -4135,16 +4147,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>274</v>
+      <c r="T41" s="52" t="s">
+        <v>161</v>
       </c>
       <c r="U41" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4158,21 +4170,21 @@
         <v>95</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="29"/>
       <c r="G42" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="12">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="H42" s="53">
+        <v>41</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>117</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="K42" s="33" t="s">
         <v>69</v>
@@ -4201,21 +4213,21 @@
         <v>95</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="29"/>
       <c r="G43" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="12">
-        <v>41</v>
+      <c r="H43" s="53">
+        <v>42</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>117</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="K43" s="33" t="s">
         <v>69</v>
@@ -4233,16 +4245,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S43" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="T43" s="7" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="U43" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4256,19 +4268,19 @@
         <v>95</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="29"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="12">
-        <v>42</v>
+      <c r="H44" s="53">
+        <v>40</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>117</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="K44" s="33" t="s">
         <v>69</v>
@@ -4281,7 +4293,7 @@
         <v>63</v>
       </c>
       <c r="O44" s="34" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>20</v>
@@ -4290,16 +4302,16 @@
         <v>6</v>
       </c>
       <c r="R44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="T44" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="U44" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -5730,11 +5742,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5750,6 +5757,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
